--- a/CustomLocalization/Localization/RogueTech/RU/RogueMunitions/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueMunitions/LocalizationDef.xlsx
@@ -2730,6 +2730,9 @@
     <t>Ammo_AmmunitionBox_Incendiary_MRM.Description.Details</t>
   </si>
   <si>
+    <t xml:space="preserve">Unlike Inferno Rounds, Incendiary Missile ammunition replaces parts of the explosive warhead with a cheaper non-gelled incendiary agent, one similar to phosphorus. While this effect is similar in principle to Inferno style rounds  the effect is heavily mitigated by atmospheric conditions. Upon receiving a Critical Hit, any remaining ammunition stored inside an Ammo Bin will explode dealing damage to the install location. Risk can be mitigated with the use of C.A.S.E </t>
+  </si>
+  <si>
     <t>Ammo_AmmunitionBox_Incendiary_MRM.Description.Name</t>
   </si>
   <si>
@@ -2745,10 +2748,7 @@
     <t>Ammo_AmmunitionBox_Incendiary_MRM_half.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Unlike Inferno Rounds, Incendiary Missile ammunition replaces parts of the explosive warhead with a cheaper non-gelled incendiary agent, one similar to phoperus. While this effect is similar in principle to Inferno style rounds  the effect is heavily mitigated by atmospheric conditions. Upon receiving a Critical Hit, any remaining ammunition stored inside an Ammo Bin will explode dealing damage to the install location. Risk can be mitigated with the use of C.A.S.E. </t>
-  </si>
-  <si>
-    <t>Unlike Inferno Rounds, Incendiary Missile ammunition replaces parts of the explosive warhead with a cheaper non-gelled incendiary agent, one similar to phoperus. While this effect is similar in principle to Inferno style rounds the effect is heavily mitigated by atmospheric conditions. Upon receiving a Critical Hit, any remaining ammunition stored inside an Ammo Bin will explode dealing damage to the install location. Risk can be mitigated with the use of C.A.S.E.</t>
+    <t xml:space="preserve">Unlike Inferno Rounds, Incendiary Missile ammunition replaces parts of the explosive warhead with a cheaper non-gelled incendiary agent, one similar to phosphorus. While this effect is similar in principle to Inferno style rounds  the effect is heavily mitigated by atmospheric conditions. Upon receiving a Critical Hit, any remaining ammunition stored inside an Ammo Bin will explode dealing damage to the install location. Risk can be mitigated with the use of C.A.S.E. </t>
   </si>
   <si>
     <t>Ammo_AmmunitionBox_Incendiary_MRM_half.Description.Name</t>
@@ -9500,7 +9500,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -9801,13 +9802,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2091"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2071" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2056" workbookViewId="0">
       <selection activeCell="C2081" sqref="C2081"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="80.5703125" customWidth="1" style="2"/>
+    <col min="4" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -18790,11 +18792,11 @@
       <c r="A529" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="B529" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="C529" s="3" t="s">
-        <v>886</v>
+      <c r="B529" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C529" s="4" t="s">
+        <v>903</v>
       </c>
       <c r="D529" s="2" t="s">
         <v>3</v>
@@ -18805,13 +18807,13 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D530" s="2" t="s">
         <v>3</v>
@@ -18822,13 +18824,13 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D531" s="2" t="s">
         <v>3</v>
@@ -18839,12 +18841,12 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="B532" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="C532" s="3" t="s">
+      <c r="B532" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="C532" s="4" t="s">
         <v>909</v>
       </c>
       <c r="D532" s="2" t="s">
@@ -18859,10 +18861,10 @@
         <v>910</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D533" s="2" t="s">
         <v>3</v>
